--- a/Testing/VoltageTesting.xlsx
+++ b/Testing/VoltageTesting.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zuhay\Documents\GitHub\EEE4022S_Thesis\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{133A88DC-2C41-484D-B4A4-8DF750D09882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6894AB2-CE16-427A-AF6D-B47435D309E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F7484FB2-D556-4F51-940B-EF4E8BE1E332}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{F7484FB2-D556-4F51-940B-EF4E8BE1E332}"/>
   </bookViews>
   <sheets>
     <sheet name="DAC Testing" sheetId="1" r:id="rId1"/>
+    <sheet name="PointVoltage" sheetId="2" r:id="rId2"/>
+    <sheet name="StandardSolution" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Instructed</t>
   </si>
@@ -55,14 +57,57 @@
   <si>
     <t>Calib</t>
   </si>
+  <si>
+    <t>Solution PSU</t>
+  </si>
+  <si>
+    <t>V_In</t>
+  </si>
+  <si>
+    <t>V_Probe</t>
+  </si>
+  <si>
+    <t>Calib Factor</t>
+  </si>
+  <si>
+    <t>Conduct</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Salinity</t>
+  </si>
+  <si>
+    <t>Resistance</t>
+  </si>
+  <si>
+    <t>R1 Resistor</t>
+  </si>
+  <si>
+    <t>V In</t>
+  </si>
+  <si>
+    <t>V Probe</t>
+  </si>
+  <si>
+    <t>Res</t>
+  </si>
+  <si>
+    <t>Cond</t>
+  </si>
+  <si>
+    <t>Sweep from 0-2.5V over standard solution (35 PSU @ 15 degrees)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="6" formatCode="&quot;R&quot;#,##0;[Red]\-&quot;R&quot;#,##0"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -279,16 +324,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -300,7 +342,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -309,10 +351,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -651,23 +696,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF84516B-F1F2-4836-A536-D5A139C5514B}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A32" workbookViewId="0">
       <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="11" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="19" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.28515625" style="19" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" style="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" style="19" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="19"/>
+    <col min="1" max="1" width="11.44140625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="11" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="10" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.33203125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -696,7 +741,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>0</v>
       </c>
@@ -730,7 +775,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>0.1</v>
       </c>
@@ -749,7 +794,7 @@
         <v>0.63694267515923575</v>
       </c>
       <c r="F3" s="9">
-        <f>D3/A3</f>
+        <f t="shared" ref="F3:F28" si="2">D3/A3</f>
         <v>1.5699999999999998</v>
       </c>
       <c r="G3" s="10">
@@ -764,7 +809,7 @@
         <v>1.4299999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>0.2</v>
       </c>
@@ -783,22 +828,22 @@
         <v>0.71684587813620071</v>
       </c>
       <c r="F4" s="9">
-        <f>D4/A4</f>
+        <f t="shared" si="2"/>
         <v>1.395</v>
       </c>
       <c r="G4" s="10">
         <v>0.26900000000000002</v>
       </c>
       <c r="H4" s="10">
-        <f t="shared" ref="H4:H36" si="2">A4/G4</f>
+        <f t="shared" ref="H4:H36" si="3">A4/G4</f>
         <v>0.74349442379182151</v>
       </c>
       <c r="I4" s="11">
-        <f t="shared" ref="I4:I28" si="3">G4/A4</f>
+        <f t="shared" ref="I4:I28" si="4">G4/A4</f>
         <v>1.345</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>0.3</v>
       </c>
@@ -817,22 +862,22 @@
         <v>0.75757575757575746</v>
       </c>
       <c r="F5" s="9">
-        <f>D5/A5</f>
+        <f t="shared" si="2"/>
         <v>1.32</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="10">
         <v>0.39100000000000001</v>
       </c>
       <c r="H5" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.76726342710997442</v>
       </c>
       <c r="I5" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3033333333333335</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>0.4</v>
       </c>
@@ -851,22 +896,22 @@
         <v>0.75046904315196994</v>
       </c>
       <c r="F6" s="9">
-        <f>D6/A6</f>
+        <f t="shared" si="2"/>
         <v>1.3325</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="10">
         <v>0.51700000000000002</v>
       </c>
       <c r="H6" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.77369439071566737</v>
       </c>
       <c r="I6" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2925</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>0.5</v>
       </c>
@@ -885,22 +930,22 @@
         <v>0.75987841945288748</v>
       </c>
       <c r="F7" s="9">
-        <f>D7/A7</f>
+        <f t="shared" si="2"/>
         <v>1.3160000000000001</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="10">
         <v>0.64800000000000002</v>
       </c>
       <c r="H7" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.77160493827160492</v>
       </c>
       <c r="I7" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.296</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>0.6</v>
       </c>
@@ -919,22 +964,22 @@
         <v>0.76824583866837381</v>
       </c>
       <c r="F8" s="9">
-        <f>D8/A8</f>
+        <f t="shared" si="2"/>
         <v>1.3016666666666667</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="10">
         <v>0.77</v>
       </c>
       <c r="H8" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.77922077922077915</v>
       </c>
       <c r="I8" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2833333333333334</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>0.7</v>
       </c>
@@ -953,22 +998,22 @@
         <v>0.77007700770077003</v>
       </c>
       <c r="F9" s="9">
-        <f>D9/A9</f>
+        <f t="shared" si="2"/>
         <v>1.2985714285714287</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="10">
         <v>0.89800000000000002</v>
       </c>
       <c r="H9" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.77951002227171484</v>
       </c>
       <c r="I9" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2828571428571429</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>0.8</v>
       </c>
@@ -987,22 +1032,22 @@
         <v>0.77594568380213391</v>
       </c>
       <c r="F10" s="9">
-        <f>D10/A10</f>
+        <f t="shared" si="2"/>
         <v>1.2887499999999998</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="10">
         <v>1.0209999999999999</v>
       </c>
       <c r="H10" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.78354554358472095</v>
       </c>
       <c r="I10" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2762499999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>0.9</v>
       </c>
@@ -1021,22 +1066,22 @@
         <v>0.78125000000000011</v>
       </c>
       <c r="F11" s="9">
-        <f>D11/A11</f>
+        <f t="shared" si="2"/>
         <v>1.2799999999999998</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="10">
         <v>1.145</v>
       </c>
       <c r="H11" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.7860262008733625</v>
       </c>
       <c r="I11" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2722222222222221</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>1</v>
       </c>
@@ -1055,22 +1100,22 @@
         <v>0.78740157480314954</v>
       </c>
       <c r="F12" s="9">
-        <f>D12/A12</f>
+        <f t="shared" si="2"/>
         <v>1.27</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="10">
         <v>1.268</v>
       </c>
       <c r="H12" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.78864353312302837</v>
       </c>
       <c r="I12" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.268</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>1.1000000000000001</v>
       </c>
@@ -1089,22 +1134,22 @@
         <v>0.78347578347578362</v>
       </c>
       <c r="F13" s="9">
-        <f>D13/A13</f>
+        <f t="shared" si="2"/>
         <v>1.2763636363636361</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="10">
         <v>1.3939999999999999</v>
       </c>
       <c r="H13" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.78909612625538028</v>
       </c>
       <c r="I13" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2672727272727271</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>1.2</v>
       </c>
@@ -1123,22 +1168,22 @@
         <v>0.78125</v>
       </c>
       <c r="F14" s="9">
-        <f>D14/A14</f>
+        <f t="shared" si="2"/>
         <v>1.28</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="10">
         <v>1.5189999999999999</v>
       </c>
       <c r="H14" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.78999341672152734</v>
       </c>
       <c r="I14" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2658333333333334</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>1.3</v>
       </c>
@@ -1157,22 +1202,22 @@
         <v>0.78219013237063784</v>
       </c>
       <c r="F15" s="9">
-        <f>D15/A15</f>
+        <f t="shared" si="2"/>
         <v>1.2784615384615383</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="10">
         <v>1.6459999999999999</v>
       </c>
       <c r="H15" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.78979343863912521</v>
       </c>
       <c r="I15" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.266153846153846</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>1.4</v>
       </c>
@@ -1191,22 +1236,22 @@
         <v>0.79320113314447593</v>
       </c>
       <c r="F16" s="9">
-        <f>D16/A16</f>
+        <f t="shared" si="2"/>
         <v>1.2607142857142857</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="10">
         <v>1.7729999999999999</v>
       </c>
       <c r="H16" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.78962210941906374</v>
       </c>
       <c r="I16" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2664285714285715</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>1.5</v>
       </c>
@@ -1225,22 +1270,22 @@
         <v>0.78369905956112851</v>
       </c>
       <c r="F17" s="9">
-        <f>D17/A17</f>
+        <f t="shared" si="2"/>
         <v>1.276</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="10">
         <v>1.901</v>
       </c>
       <c r="H17" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.78905839032088376</v>
       </c>
       <c r="I17" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2673333333333334</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>1.6</v>
       </c>
@@ -1259,22 +1304,22 @@
         <v>0.78585461689587432</v>
       </c>
       <c r="F18" s="9">
-        <f>D18/A18</f>
+        <f t="shared" si="2"/>
         <v>1.2725</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="10">
         <v>2.0259999999999998</v>
       </c>
       <c r="H18" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.78973346495557761</v>
       </c>
       <c r="I18" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2662499999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>1.7</v>
       </c>
@@ -1293,22 +1338,22 @@
         <v>0.78813166434863235</v>
       </c>
       <c r="F19" s="9">
-        <f>D19/A19</f>
+        <f t="shared" si="2"/>
         <v>1.2688235294117647</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="10">
         <v>2.1539999999999999</v>
       </c>
       <c r="H19" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.78922934076137419</v>
       </c>
       <c r="I19" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2670588235294118</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>1.8</v>
       </c>
@@ -1327,22 +1372,22 @@
         <v>0.78465562336530081</v>
       </c>
       <c r="F20" s="9">
-        <f>D20/A20</f>
+        <f t="shared" si="2"/>
         <v>1.2744444444444445</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="10">
         <v>2.278</v>
       </c>
       <c r="H20" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.79016681299385427</v>
       </c>
       <c r="I20" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2655555555555555</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>1.9</v>
       </c>
@@ -1361,22 +1406,22 @@
         <v>0.78772802653399665</v>
       </c>
       <c r="F21" s="9">
-        <f>D21/A21</f>
+        <f t="shared" si="2"/>
         <v>1.2694736842105263</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="10">
         <v>2.407</v>
       </c>
       <c r="H21" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.78936435396759452</v>
       </c>
       <c r="I21" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.266842105263158</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>2</v>
       </c>
@@ -1395,22 +1440,22 @@
         <v>0.78833267638943638</v>
       </c>
       <c r="F22" s="9">
-        <f>D22/A22</f>
+        <f t="shared" si="2"/>
         <v>1.2685</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="10">
         <v>2.528</v>
       </c>
       <c r="H22" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.79113924050632911</v>
       </c>
       <c r="I22" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.264</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>2.1</v>
       </c>
@@ -1429,22 +1474,22 @@
         <v>0.7879924953095685</v>
       </c>
       <c r="F23" s="9">
-        <f>D23/A23</f>
+        <f t="shared" si="2"/>
         <v>1.269047619047619</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="10">
         <v>2.653</v>
       </c>
       <c r="H23" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.79155672823219003</v>
       </c>
       <c r="I23" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2633333333333332</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>2.2000000000000002</v>
       </c>
@@ -1463,22 +1508,22 @@
         <v>0.78655702538434036</v>
       </c>
       <c r="F24" s="9">
-        <f>D24/A24</f>
+        <f t="shared" si="2"/>
         <v>1.2713636363636363</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="10">
         <v>2.7810000000000001</v>
       </c>
       <c r="H24" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.79108234448040271</v>
       </c>
       <c r="I24" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2640909090909092</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>2.2999999999999998</v>
       </c>
@@ -1497,22 +1542,22 @@
         <v>0.79667474887426393</v>
       </c>
       <c r="F25" s="9">
-        <f>D25/A25</f>
+        <f t="shared" si="2"/>
         <v>1.2552173913043478</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="10">
         <v>2.887</v>
       </c>
       <c r="H25" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.79667474887426393</v>
       </c>
       <c r="I25" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2552173913043478</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>2.4</v>
       </c>
@@ -1531,22 +1576,22 @@
         <v>0.78662733529990159</v>
       </c>
       <c r="F26" s="9">
-        <f>D26/A26</f>
+        <f t="shared" si="2"/>
         <v>1.2712500000000002</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="10">
         <v>3.0390000000000001</v>
       </c>
       <c r="H26" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.78973346495557739</v>
       </c>
       <c r="I26" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2662500000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>2.5</v>
       </c>
@@ -1565,22 +1610,22 @@
         <v>0.78690588605602774</v>
       </c>
       <c r="F27" s="9">
-        <f>D27/A27</f>
+        <f t="shared" si="2"/>
         <v>1.2707999999999999</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G27" s="10">
         <v>3.1709999999999998</v>
       </c>
       <c r="H27" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.78839482812992756</v>
       </c>
       <c r="I27" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2684</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>2.6</v>
       </c>
@@ -1599,22 +1644,22 @@
         <v>0.78787878787878796</v>
       </c>
       <c r="F28" s="9">
-        <f>D28/A28</f>
+        <f t="shared" si="2"/>
         <v>1.2692307692307692</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G28" s="10">
         <v>3.3</v>
       </c>
       <c r="H28" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.78787878787878796</v>
       </c>
       <c r="I28" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2692307692307692</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>2.7</v>
       </c>
@@ -1633,16 +1678,16 @@
         <v>0.81818181818181823</v>
       </c>
       <c r="F29" s="9"/>
-      <c r="G29" s="12">
+      <c r="G29" s="10">
         <v>3.3</v>
       </c>
       <c r="H29" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.81818181818181823</v>
       </c>
-      <c r="I29" s="13"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I29" s="12"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>2.8</v>
       </c>
@@ -1661,16 +1706,16 @@
         <v>0.84848484848484851</v>
       </c>
       <c r="F30" s="9"/>
-      <c r="G30" s="12">
+      <c r="G30" s="10">
         <v>3.3</v>
       </c>
       <c r="H30" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.84848484848484851</v>
       </c>
-      <c r="I30" s="13"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I30" s="12"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>2.9</v>
       </c>
@@ -1689,16 +1734,16 @@
         <v>0.87878787878787878</v>
       </c>
       <c r="F31" s="9"/>
-      <c r="G31" s="12">
+      <c r="G31" s="10">
         <v>3.3</v>
       </c>
       <c r="H31" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.87878787878787878</v>
       </c>
-      <c r="I31" s="13"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I31" s="12"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
         <v>3</v>
       </c>
@@ -1717,16 +1762,16 @@
         <v>0.90909090909090917</v>
       </c>
       <c r="F32" s="9"/>
-      <c r="G32" s="12">
+      <c r="G32" s="10">
         <v>3.3</v>
       </c>
       <c r="H32" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.90909090909090917</v>
       </c>
-      <c r="I32" s="13"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I32" s="12"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <v>3.1</v>
       </c>
@@ -1745,16 +1790,16 @@
         <v>0.93939393939393945</v>
       </c>
       <c r="F33" s="9"/>
-      <c r="G33" s="12">
+      <c r="G33" s="10">
         <v>3.3</v>
       </c>
       <c r="H33" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.93939393939393945</v>
       </c>
-      <c r="I33" s="13"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I33" s="12"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
         <v>3.2</v>
       </c>
@@ -1773,16 +1818,16 @@
         <v>0.96969696969696983</v>
       </c>
       <c r="F34" s="9"/>
-      <c r="G34" s="12">
+      <c r="G34" s="10">
         <v>3.3</v>
       </c>
       <c r="H34" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.96969696969696983</v>
       </c>
-      <c r="I34" s="13"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I34" s="12"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
         <v>3.3</v>
       </c>
@@ -1801,16 +1846,16 @@
         <v>1</v>
       </c>
       <c r="F35" s="9"/>
-      <c r="G35" s="12">
+      <c r="G35" s="10">
         <v>3.3</v>
       </c>
       <c r="H35" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="I35" s="13"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I35" s="12"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
         <v>3.4</v>
       </c>
@@ -1829,16 +1874,16 @@
         <v>1.0303030303030303</v>
       </c>
       <c r="F36" s="9"/>
-      <c r="G36" s="12">
+      <c r="G36" s="10">
         <v>3.3</v>
       </c>
       <c r="H36" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0303030303030303</v>
       </c>
-      <c r="I36" s="13"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I36" s="12"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
         <v>3.5</v>
       </c>
@@ -1852,15 +1897,13 @@
       <c r="D37" s="8">
         <v>3.3</v>
       </c>
-      <c r="E37" s="10"/>
       <c r="F37" s="9"/>
-      <c r="G37" s="12">
-        <v>3.3</v>
-      </c>
-      <c r="H37" s="10"/>
-      <c r="I37" s="13"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G37" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="I37" s="12"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
         <v>3.6</v>
       </c>
@@ -1874,15 +1917,13 @@
       <c r="D38" s="8">
         <v>3.3</v>
       </c>
-      <c r="E38" s="10"/>
       <c r="F38" s="9"/>
-      <c r="G38" s="12">
-        <v>3.3</v>
-      </c>
-      <c r="H38" s="10"/>
-      <c r="I38" s="13"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G38" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="I38" s="12"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
         <v>3.7</v>
       </c>
@@ -1896,15 +1937,13 @@
       <c r="D39" s="8">
         <v>3.3</v>
       </c>
-      <c r="E39" s="10"/>
       <c r="F39" s="9"/>
-      <c r="G39" s="12">
-        <v>3.3</v>
-      </c>
-      <c r="H39" s="10"/>
-      <c r="I39" s="13"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G39" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="I39" s="12"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="7">
         <v>3.8</v>
       </c>
@@ -1918,15 +1957,13 @@
       <c r="D40" s="8">
         <v>3.3</v>
       </c>
-      <c r="E40" s="10"/>
       <c r="F40" s="9"/>
-      <c r="G40" s="12">
-        <v>3.3</v>
-      </c>
-      <c r="H40" s="10"/>
-      <c r="I40" s="13"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G40" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="I40" s="12"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="7">
         <v>3.9</v>
       </c>
@@ -1940,15 +1977,13 @@
       <c r="D41" s="8">
         <v>3.3</v>
       </c>
-      <c r="E41" s="10"/>
       <c r="F41" s="9"/>
-      <c r="G41" s="12">
-        <v>3.3</v>
-      </c>
-      <c r="H41" s="10"/>
-      <c r="I41" s="13"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G41" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="I41" s="12"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="7">
         <v>4</v>
       </c>
@@ -1962,15 +1997,13 @@
       <c r="D42" s="8">
         <v>3.3</v>
       </c>
-      <c r="E42" s="10"/>
       <c r="F42" s="9"/>
-      <c r="G42" s="12">
-        <v>3.3</v>
-      </c>
-      <c r="H42" s="10"/>
-      <c r="I42" s="13"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G42" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="I42" s="12"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
         <v>4.0999999999999996</v>
       </c>
@@ -1984,15 +2017,13 @@
       <c r="D43" s="8">
         <v>3.3</v>
       </c>
-      <c r="E43" s="10"/>
       <c r="F43" s="9"/>
-      <c r="G43" s="12">
-        <v>3.3</v>
-      </c>
-      <c r="H43" s="10"/>
-      <c r="I43" s="13"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G43" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="I43" s="12"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="7">
         <v>4.2</v>
       </c>
@@ -2006,15 +2037,13 @@
       <c r="D44" s="8">
         <v>3.3</v>
       </c>
-      <c r="E44" s="10"/>
       <c r="F44" s="9"/>
-      <c r="G44" s="12">
-        <v>3.3</v>
-      </c>
-      <c r="H44" s="10"/>
-      <c r="I44" s="13"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G44" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="I44" s="12"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="7">
         <v>4.3</v>
       </c>
@@ -2028,15 +2057,13 @@
       <c r="D45" s="8">
         <v>3.3</v>
       </c>
-      <c r="E45" s="10"/>
       <c r="F45" s="9"/>
-      <c r="G45" s="12">
-        <v>3.3</v>
-      </c>
-      <c r="H45" s="10"/>
-      <c r="I45" s="13"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G45" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="I45" s="12"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="7">
         <v>4.4000000000000004</v>
       </c>
@@ -2050,15 +2077,13 @@
       <c r="D46" s="8">
         <v>3.3</v>
       </c>
-      <c r="E46" s="10"/>
       <c r="F46" s="9"/>
-      <c r="G46" s="12">
-        <v>3.3</v>
-      </c>
-      <c r="H46" s="10"/>
-      <c r="I46" s="13"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G46" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="I46" s="12"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="7">
         <v>4.5</v>
       </c>
@@ -2072,15 +2097,13 @@
       <c r="D47" s="8">
         <v>3.3</v>
       </c>
-      <c r="E47" s="10"/>
       <c r="F47" s="9"/>
-      <c r="G47" s="12">
-        <v>3.3</v>
-      </c>
-      <c r="H47" s="10"/>
-      <c r="I47" s="13"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G47" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="I47" s="12"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="7">
         <v>4.5999999999999996</v>
       </c>
@@ -2094,15 +2117,13 @@
       <c r="D48" s="8">
         <v>3.3</v>
       </c>
-      <c r="E48" s="10"/>
       <c r="F48" s="9"/>
-      <c r="G48" s="12">
-        <v>3.3</v>
-      </c>
-      <c r="H48" s="10"/>
-      <c r="I48" s="13"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G48" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="I48" s="12"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="7">
         <v>4.7</v>
       </c>
@@ -2116,15 +2137,13 @@
       <c r="D49" s="8">
         <v>3.3</v>
       </c>
-      <c r="E49" s="10"/>
       <c r="F49" s="9"/>
-      <c r="G49" s="12">
-        <v>3.3</v>
-      </c>
-      <c r="H49" s="10"/>
-      <c r="I49" s="13"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G49" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="I49" s="12"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="7">
         <v>4.8</v>
       </c>
@@ -2138,15 +2157,13 @@
       <c r="D50" s="8">
         <v>3.3</v>
       </c>
-      <c r="E50" s="10"/>
       <c r="F50" s="9"/>
-      <c r="G50" s="12">
-        <v>3.3</v>
-      </c>
-      <c r="H50" s="10"/>
-      <c r="I50" s="13"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G50" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="I50" s="12"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
         <v>4.9000000000000004</v>
       </c>
@@ -2160,54 +2177,52 @@
       <c r="D51" s="8">
         <v>3.3</v>
       </c>
-      <c r="E51" s="10"/>
       <c r="F51" s="9"/>
-      <c r="G51" s="12">
-        <v>3.3</v>
-      </c>
-      <c r="H51" s="10"/>
-      <c r="I51" s="13"/>
-    </row>
-    <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="14">
+      <c r="G51" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="I51" s="12"/>
+    </row>
+    <row r="52" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="13">
         <v>5</v>
       </c>
-      <c r="B52" s="15">
+      <c r="B52" s="14">
         <v>4.91</v>
       </c>
-      <c r="C52" s="16">
+      <c r="C52" s="15">
         <f t="shared" si="0"/>
         <v>0.98199999999999998</v>
       </c>
-      <c r="D52" s="15">
-        <v>3.3</v>
-      </c>
-      <c r="E52" s="17"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="17">
-        <v>3.3</v>
-      </c>
-      <c r="H52" s="17"/>
-      <c r="I52" s="18"/>
-    </row>
-    <row r="53" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C53" s="20">
+      <c r="D52" s="14">
+        <v>3.3</v>
+      </c>
+      <c r="E52" s="16"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="16">
+        <v>3.3</v>
+      </c>
+      <c r="H52" s="16"/>
+      <c r="I52" s="17"/>
+    </row>
+    <row r="53" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C53" s="18">
         <f>AVERAGE(C2:C52)</f>
         <v>0.98687993526930129</v>
       </c>
-      <c r="E53" s="19">
+      <c r="E53" s="10">
         <f>AVERAGE(E3:E34)</f>
         <v>0.79560697615546871</v>
       </c>
-      <c r="F53" s="20">
+      <c r="F53" s="18">
         <f>AVERAGE(F3:F28)</f>
         <v>1.2963337934534871</v>
       </c>
-      <c r="H53" s="19">
+      <c r="H53" s="10">
         <f>AVERAGE(H3:H34)</f>
         <v>0.80245180996848742</v>
       </c>
-      <c r="I53" s="20">
+      <c r="I53" s="18">
         <f>AVERAGE(I3:I28)</f>
         <v>1.2807210280990509</v>
       </c>
@@ -2215,4 +2230,115 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A326814-0974-42B5-9215-D36AB1C9E543}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="3" width="13.5546875" customWidth="1"/>
+    <col min="6" max="7" width="11.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>35</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>1.65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81FF3496-28C4-4367-987C-006B3D025AB4}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="19">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>